--- a/avis_etudiant.xlsx
+++ b/avis_etudiant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\issak\Documents\M1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E326930C-A44F-4DA2-AD0B-6F28961F20D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D3C030-1CFC-4D2C-99A9-A458939D4A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CE8D5319-EE1B-4CEA-915D-71EC1B0CF786}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>i</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Les sujets de partiels sont parfois vraiment trop longs par rapport au temps qui nous est imposé (exemple : économétrie (en td notamment), économie de l'incertitude (td et partiel)). Ce serait plus abordable pour les étudiants d'accorder du temps supplémentaire ou de faire des sujets un peu plus court pour éviter que les étudiants ne se dépêchent et bâclent leur fin de sujet.</t>
+  </si>
+  <si>
+    <t>Le rythme des cours est un peu fatiguant. Le cours d'introduction à python est intéressant, mais nous avons pas beaucoup de temps pour s'exercer vu comment notre programme du premier semestre est chargé. J'ai trouvé l'examen un peu difficile pour des personnes qui débutent dans l'apprentissage de python</t>
   </si>
 </sst>
 </file>
@@ -439,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C4F881-24B6-4987-B997-CBB99C1C9D09}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -504,11 +507,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">

--- a/avis_etudiant.xlsx
+++ b/avis_etudiant.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\issak\Documents\M1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D3C030-1CFC-4D2C-99A9-A458939D4A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C891D1-BFAB-4F1A-9F7A-46FD84AF1EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CE8D5319-EE1B-4CEA-915D-71EC1B0CF786}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>i</t>
   </si>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t>Le rythme des cours est un peu fatiguant. Le cours d'introduction à python est intéressant, mais nous avons pas beaucoup de temps pour s'exercer vu comment notre programme du premier semestre est chargé. J'ai trouvé l'examen un peu difficile pour des personnes qui débutent dans l'apprentissage de python</t>
+  </si>
+  <si>
+    <t>Avoir l’examen final en python sous forme de projet aurait permis à plus de gens de réussir mais aussi de s’améliorer (meilleur compréhension de la manipulation des boucles, des indices et de la notion « programmation orientée objet »). Ça a été mon cas après avoir réussi à finir mon sujet à la fin de la semaine des partiels.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EAF : cours agréable à suivre mais pas vraiment de trame précise dans celui-ci et qcu compliqué Management : matière presque trop dense en termes de révisions, d’exos à maîtriser et de notions à connaître Python : format du cours qui donne envie d’apprendre et qui permet de progresser Excel : pas vraiment de structure, pourrait être mieux si ça ressemblait un peu plus à python sur la forme Économie de l’incertitude : matière intéressante Économétrie : approche concrète de l’économétrie avec python donc très intéressant et stimulant Intro a SAS : un peu en avance comparé au programme d’économétrie mais bon cours </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dommage qu’on est eu seulement 1 matière sur l’immobilier. Donc on a Peu d’expérience et connaissances pour trouver un bon stage dans l’immobilier. </t>
   </si>
 </sst>
 </file>
@@ -98,13 +107,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,25 +457,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C4F881-24B6-4987-B997-CBB99C1C9D09}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="4"/>
+    <col min="2" max="2" width="48.77734375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -468,7 +484,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -476,7 +492,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -484,7 +500,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -492,7 +508,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -500,7 +516,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -508,126 +524,132 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
+    </row>
+    <row r="10" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
+    </row>
+    <row r="11" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="2"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="1"/>
+      <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="1"/>
+      <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="1"/>
+      <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="1"/>
+      <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="1"/>
+      <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="1"/>
+      <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="1"/>
+      <c r="B27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
